--- a/отчеты Останкино (поставки)/Останкино_недогрузы/ПРИХОДЫ/Луганск/2025/05,25/Луганск 05,05 0000-001571.xlsx
+++ b/отчеты Останкино (поставки)/Останкино_недогрузы/ПРИХОДЫ/Луганск/2025/05,25/Луганск 05,05 0000-001571.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\Останкино_недогрузы\ПРИХОДЫ\Луганск\2025\05,25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Ost_orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB266D-7845-433E-AE89-D82A443D68A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3433971-D80E-411D-830B-37672A393ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
